--- a/static/exports/document_report.xlsx
+++ b/static/exports/document_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="195">
   <si>
     <t>Document ID</t>
   </si>
@@ -46,19 +46,34 @@
     <t>Similarity Hash</t>
   </si>
   <si>
+    <t>sample_5.pdf</t>
+  </si>
+  <si>
+    <t>sample_7.pdf</t>
+  </si>
+  <si>
+    <t>sample_9.pdf</t>
+  </si>
+  <si>
+    <t>sample_8.pdf</t>
+  </si>
+  <si>
+    <t>TestDoc_10.pdf</t>
+  </si>
+  <si>
     <t>TestDoc_1_1.pdf</t>
   </si>
   <si>
     <t>TestDoc_2.pdf</t>
   </si>
   <si>
-    <t>TestDoc_3.pdf</t>
-  </si>
-  <si>
-    <t>2025-03-12 14:41</t>
-  </si>
-  <si>
-    <t>Jana</t>
+    <t>2025-03-12 15:22</t>
+  </si>
+  <si>
+    <t>2025-03-12 15:42</t>
+  </si>
+  <si>
+    <t>2025-03-12 17:21</t>
   </si>
   <si>
     <t>regular</t>
@@ -130,6 +145,24 @@
     <t>? Decision but law series standard.</t>
   </si>
   <si>
+    <t>We are writing to inform you about an important change in your policy conditions. Please review the</t>
+  </si>
+  <si>
+    <t>attached document for further details. We appreciate your trust in our services and strive to offer you the best insurance coverage</t>
+  </si>
+  <si>
+    <t>available. Dear Valued Client, welcome to our insurance family. Your coverage begins on the start date</t>
+  </si>
+  <si>
+    <t>mentioned in your policy. This letter is to notify you of updates to your insurance terms. Kindly check the enclosed document</t>
+  </si>
+  <si>
+    <t>for specifics. Your insurance premium has been adjusted based on recent evaluations. Please find the updated</t>
+  </si>
+  <si>
+    <t>details in the attached summary.</t>
+  </si>
+  <si>
     <t>Here during serve. Cup country radio field become. Stay woman experience professional research</t>
   </si>
   <si>
@@ -205,52 +238,106 @@
     <t>Future | Enter | Fly hospital | bank | community same | floor | know myself | option | world</t>
   </si>
   <si>
-    <t>Individual officer history already stop stop. Eat us stand owner letter region. Around professional</t>
-  </si>
-  <si>
-    <t>exist. Summer that develop why. Able billion tough color wear yes. Yard point could inside light. Officer have spend point head. Enter continue whole young. Group foreign near organization several outside strong nation. Value hold soldier good modern far. Threat language realize large</t>
-  </si>
-  <si>
-    <t>administration. Similar scene simply green manage certainly. Lawyer miss free Democrat choose hospital. Find idea black Mrs wall effect international. Really rather suffer theory among. Station indicate almost</t>
-  </si>
-  <si>
-    <t>letter summer. Organization product spend understand. Along charge particularly high politics than. Stuff picture face another. May war during raise build audience meet. Source feel wish way. Sign action top lawyer those shoulder. Wait summer concern size another at trouble. Near me strong lose small rock. Oil condition garden avoid. Add same moment morning whatever improve front. Animal condition side coach current production. Poor model above. Force represent dark field commercial drop include. Environmental hard live at. He indicate full protect. Read shoulder company husband lawyer. Culture stage however value. Staff own education nearly rich. Family gun charge medical</t>
-  </si>
-  <si>
-    <t>analysis land. Care military recently community beat. Should relate degree establish debate. Off stage pressure reduce my receive pick sport. Sure face painting future make. Blood rise majority consumer whose</t>
-  </si>
-  <si>
-    <t>president. Total base race year spring behavior box. Reduce your together account camera all. Information ok sea hospital agreement. Probably project they peace himself so. Detail hope rather history note catch compare. Machine fish stage him action both stay now. They different knowledge cultural go. Find wear wonder buy agreement why spring. Account once rest understand four scene</t>
-  </si>
-  <si>
-    <t>old great. Himself whom act. Method suffer personal dream and actually. Only box must hit. Approach knowledge opportunity claim I research quality. Nothing medical east art recent. Think actually collection pull. Cup mind against imagine. Nor economic near why often. Involve Mr develop. Within</t>
-  </si>
-  <si>
-    <t>herself whose quite thing. Try Republican keep almost spend process. Second exist address agent be. Fund free what single business seven. Table region town enjoy with yourself true. Travel really my direction plant set. Role contain page doctor. Attack themselves news own. Resource instead investment happen. Energy blue training effort who tree still. Out every very for. Political agree down focus. Success hit we yeah big loss hard early. Note cut catch as. Life recognize two foreign. Among which PM billion get draw</t>
-  </si>
-  <si>
-    <t>finally bank. Moment instead hand sport source. Pass dog hard religious. Send performance receive today significant special nearly then. Instead for at very. Focus attack professor control something may carry magazine. Beyond body can consider thank face. Main</t>
-  </si>
-  <si>
-    <t>wrong price our. Record group could on pick. Long deep produce baby quickly here smile stock.</t>
-  </si>
-  <si>
-    <t>Garden executive yet term set soldier. Evidence give production create support.</t>
-  </si>
-  <si>
-    <t>Property gas relate public nice decision perhaps. Provide crime whole sound produce really bed. Order lay interesting image law throw. Whatever group service. Force chair general conference involve about. Edge possible up space wide produce during. Your still budget lead attack get. Free</t>
-  </si>
-  <si>
-    <t>cause particular herself wait. Office health see early month soldier. Land think which baby choice. Such attention perhaps decision how. Law enter man control range. Significant mouth challenge board show pretty seat. Foreign nor remain church improve. Stay responsibility pass threat once</t>
-  </si>
-  <si>
-    <t>fish.</t>
-  </si>
-  <si>
-    <t>Nothing measure pressure claim lay along around. Sound president which along. Main yeah field. Day general few seek option left. Feel down impact recent such challenge. Respond star whatever meet. Truth million write rock. North either get big strategy feeling cup. Before officer brother under agreement movement current. Money statement experience country vote. Foreign understand prove. Sort fly four early especially foot. Film raise within sing group guy dog. Its mouth popular minute out value chance. Daughter last in majority situation that. Rate technology share necessary</t>
-  </si>
-  <si>
-    <t>effect.</t>
+    <t>Thank you for choosing our services. We are committed to providing you with the best possible</t>
+  </si>
+  <si>
+    <t>insurance solutions. This letter is to notify you of updates to your insurance terms. Kindly check the enclosed document</t>
+  </si>
+  <si>
+    <t>Should you have any inquiries about your insurance, feel free to contact our customer service team.</t>
+  </si>
+  <si>
+    <t>We are always ready to help. Dear Valued Client, welcome to our insurance family. Your coverage begins on the start date</t>
+  </si>
+  <si>
+    <t>mentioned in your policy.</t>
+  </si>
+  <si>
+    <t>Your insurance premium has been adjusted based on recent evaluations. Please find the updated</t>
+  </si>
+  <si>
+    <t>details in the attached summary. This letter is to notify you of updates to your insurance terms. Kindly check the enclosed document</t>
+  </si>
+  <si>
+    <t>for specifics. Dear Customer, we are pleased to welcome you to our insurance family. Your coverage begins on</t>
+  </si>
+  <si>
+    <t>the start date specified in your policy. Dear Valued Client, welcome to our insurance family. Your coverage begins on the start date</t>
+  </si>
+  <si>
+    <t>mentioned in your policy. Thank you for choosing our services. We are committed to providing you with the best possible</t>
+  </si>
+  <si>
+    <t>insurance solutions.</t>
+  </si>
+  <si>
+    <t>Dear Customer, we are pleased to welcome you to our insurance family. Your coverage begins on</t>
+  </si>
+  <si>
+    <t>the start date specified in your policy. This letter is to notify you of updates to your insurance terms. Kindly check the enclosed document</t>
+  </si>
+  <si>
+    <t>for specifics. We are writing to inform you about an important change in your policy conditions. Please review the</t>
+  </si>
+  <si>
+    <t>attached document for further details. Dear Valued Client, welcome to our insurance family. Your coverage begins on the start date</t>
+  </si>
+  <si>
+    <t>mentioned in your policy. Your insurance premium has been adjusted based on recent evaluations. Please find the updated</t>
+  </si>
+  <si>
+    <t>Activity clearly develop hear. Let early beautiful best cup political. Could market spring. Kitchen will</t>
+  </si>
+  <si>
+    <t>out book. Hot really about into participant help performance. Can not must system seem interview. Soldier remain information gun others. Indeed statement question simply. Floor score open pressure</t>
+  </si>
+  <si>
+    <t>seven save. Out practice appear pressure can during process. Amount explain full century interest.</t>
+  </si>
+  <si>
+    <t>Minute listen get employee. Consider assume fire buy exist military election. Both this cut nation. Newspaper seek whatever poor. Technology magazine attention. According item tonight society way. Mr wall provide local action simple. Design agreement look. Write not our boy. Fish difference</t>
+  </si>
+  <si>
+    <t>election herself bring song. Else difference manage.</t>
+  </si>
+  <si>
+    <t>Almost stage final audience. Specific center might design. Court development cultural system field.</t>
+  </si>
+  <si>
+    <t>Into owner information. Sea front among century. Career along town party. Policy money sister. Space contain threat western rock everyone. Choice quality seek be party. Explain simply front traditional human. Benefit range practice institution citizen sign. Catch born available yeah home</t>
+  </si>
+  <si>
+    <t>well since. Approach computer husband item pay baby work. To once east miss really these everything. Page impact six police something evidence eye. Yeah out red. Measure letter trouble sell. Treat answer party lay offer. Three mean bag factor. Back capital exactly soon even. Natural worker over sure. Do human hotel. Eat sport when cold. Operation choice continue send down interest. Call great institution pretty picture east close. In protect court focus free. Cup black current enough company</t>
+  </si>
+  <si>
+    <t>family. Yeah ground radio gas free. Skill against half more clear cover raise. Court hot morning Democrat president president information. Kid million image a recently himself institution. Concern drug force author successful whatever alone special. Without us various push stop benefit certain. Can budget necessary black. Enter question chance follow my guess continue question. Result fight country</t>
+  </si>
+  <si>
+    <t>forward assume. Media per idea interesting. Choose civil threat use today. Require red real voice figure movie Congress. Edge card reach commercial site important. Here his risk yes a social call. Piece first inside. Relationship ball kind. Lead determine technology effort</t>
+  </si>
+  <si>
+    <t>push. Later suggest top father black life arm. Natural reason chance size anyone ok. Then detail middle try baby determine case seem. Writer</t>
+  </si>
+  <si>
+    <t>quite clearly billion peace method. Boy south often themselves. Management carry discuss prove. Alone name he rest free. Particularly true fear still. President never expert wrong whatever sign rock</t>
+  </si>
+  <si>
+    <t>similar. Candidate feeling agree help medical health. Change recent tell generation current. Media hard out his kid risk situation. Represent feel into increase analysis. Administration door president note response. Size if yeah Mrs. Science available bank model someone debate behind. Bank page system floor. Market ask sign if. Suffer situation</t>
+  </si>
+  <si>
+    <t>carry bit section. In away computer sense per heavy. Institution defense worker wait would meeting. Piece party</t>
+  </si>
+  <si>
+    <t>important next customer page. Character court fact ever. Concern remain garden meet return sport.</t>
+  </si>
+  <si>
+    <t>Then prove team. Not human form west behavior science store number. May area yeah. Message through one art situation include. Fire bed government institution. By raise table record ground shake majority. Yard deep during left many family pattern. Water onto perhaps recently fear</t>
+  </si>
+  <si>
+    <t>report. Exactly form make however church. Land tree senior allow. Parent add couple keep do.</t>
+  </si>
+  <si>
+    <t>Training color so down go sound. Federal difference chance difference official.</t>
   </si>
   <si>
     <t>Jana Čadíková</t>
@@ -319,6 +406,24 @@
     <t>5f007b898731993515e2e16b5462e262</t>
   </si>
   <si>
+    <t>9e794f32066ae9c762c665ad9208219e</t>
+  </si>
+  <si>
+    <t>9fbc57b2c664f01d3ff35193aba9437a</t>
+  </si>
+  <si>
+    <t>cede085ffd4b4947e9ea6238dafdafe9</t>
+  </si>
+  <si>
+    <t>f6e002087e7fe7e045eedc291aac0bb3</t>
+  </si>
+  <si>
+    <t>73485f7e78445f2b2e1f928a8cb1cbe1</t>
+  </si>
+  <si>
+    <t>d190518994fc436912b130bde343c9d7</t>
+  </si>
+  <si>
     <t>7bb40353c3220b1b1d80da87ae8faf9b</t>
   </si>
   <si>
@@ -394,52 +499,106 @@
     <t>84ba0c86b72730b0738c67bea99b2180</t>
   </si>
   <si>
-    <t>a6cd19b9a64ed7fc963e38f724029194</t>
-  </si>
-  <si>
-    <t>d4c1aebc7a10508c66d8e044f4644d28</t>
-  </si>
-  <si>
-    <t>4a673b8ac9393737558e35f1f51ff341</t>
-  </si>
-  <si>
-    <t>1b321fa68307ee25fdeb56e17a7b6299</t>
-  </si>
-  <si>
-    <t>65e12ef6257f9d7c2da1a2d2b8719bea</t>
-  </si>
-  <si>
-    <t>b2db5169539a0408147dda6bab9a2508</t>
-  </si>
-  <si>
-    <t>0d235aafe33e7492e52b7e894969ba0d</t>
-  </si>
-  <si>
-    <t>ed1b29d479c301cb546c5ea1f0f7a227</t>
-  </si>
-  <si>
-    <t>344d7c625b2f82cdf47a73ce135b9395</t>
-  </si>
-  <si>
-    <t>87ed5262f7f38b552615711125306a2b</t>
-  </si>
-  <si>
-    <t>156ee2ecaa47e1c503966fe55269995f</t>
-  </si>
-  <si>
-    <t>dd739b44847cc8da3b8fbc7c3eb07939</t>
-  </si>
-  <si>
-    <t>9e32b9a6c49565f6cb7e739e01d77b48</t>
-  </si>
-  <si>
-    <t>83e4a96aed96436c621b9809e258b309</t>
-  </si>
-  <si>
-    <t>0020442eb72d588b07931f2900a8c573</t>
-  </si>
-  <si>
-    <t>bf5b17fac5c60d745a593b5920372235</t>
+    <t>6d842aedd0528d1f143d82e7fc6e38cc</t>
+  </si>
+  <si>
+    <t>93f7f1f98101dd9453a8a0db791cbea6</t>
+  </si>
+  <si>
+    <t>1cb0635bd52478519e0d40ecda0303d8</t>
+  </si>
+  <si>
+    <t>be9679cea1db69a7eac96e03737683bf</t>
+  </si>
+  <si>
+    <t>a9fda0e23dc5893e8d895c1ef54d69a5</t>
+  </si>
+  <si>
+    <t>bb4b8d9782fa28b3c183a2d3c9ffb671</t>
+  </si>
+  <si>
+    <t>e5ba70aeb06d90f322004d5f5aa6a04f</t>
+  </si>
+  <si>
+    <t>bf28fbb5ffe59eba8337e110cca78c49</t>
+  </si>
+  <si>
+    <t>508336622c0ff8c31e7284b43a97c627</t>
+  </si>
+  <si>
+    <t>c7f3f43d010c070f3de399d559356641</t>
+  </si>
+  <si>
+    <t>35e2b6444fded3683c735078323a767d</t>
+  </si>
+  <si>
+    <t>3dc033872eafa5fd8b77afbe73b3899c</t>
+  </si>
+  <si>
+    <t>c28c83aea3f2f3125e90d1854a796529</t>
+  </si>
+  <si>
+    <t>4bf97438fcf9a2123d9c0d1dfacc4c3f</t>
+  </si>
+  <si>
+    <t>4fa11cb41575fb32b656e5e70ffef4e9</t>
+  </si>
+  <si>
+    <t>94abcd65f538f6a1f19ed2ac58879923</t>
+  </si>
+  <si>
+    <t>573869088eabb760dce43467a2f1262d</t>
+  </si>
+  <si>
+    <t>5a85e96ec66e6144eb6e5e7950c20c6e</t>
+  </si>
+  <si>
+    <t>461da6de63973b2e68499ef1f58850d9</t>
+  </si>
+  <si>
+    <t>c9ca88ba381f2ebf7de93961be0bae9a</t>
+  </si>
+  <si>
+    <t>01229b3ceef0a8ab01a5ecbbf6999bb7</t>
+  </si>
+  <si>
+    <t>3529602c74d4df9cdcbb909a93b050ee</t>
+  </si>
+  <si>
+    <t>89111cf50b347d0a8d8fd80ca1b3e881</t>
+  </si>
+  <si>
+    <t>877186de0cc971c772f2b2d4efaa97a3</t>
+  </si>
+  <si>
+    <t>6559866d6c2087e5e7ea4c2f655fd083</t>
+  </si>
+  <si>
+    <t>8489d85e986835fad095902dc3ccd852</t>
+  </si>
+  <si>
+    <t>cb2b1bac3962cee3712a43d5140d407a</t>
+  </si>
+  <si>
+    <t>c4a9afe5d97d39fc2063f49bed234e25</t>
+  </si>
+  <si>
+    <t>85825420576695381a9fb296e3e08740</t>
+  </si>
+  <si>
+    <t>280397e5cf89d54282ce2eeb12521c70</t>
+  </si>
+  <si>
+    <t>29bef2ef1dbdb2970929984eb37d4c7c</t>
+  </si>
+  <si>
+    <t>3e5685a162c2e5d4a1af1208c8dfa9d3</t>
+  </si>
+  <si>
+    <t>316e5cb2b2d6d7c47a15922678985977</t>
+  </si>
+  <si>
+    <t>7405dde25939f03b9906b2ab325e198b</t>
   </si>
 </sst>
 </file>
@@ -797,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -864,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -881,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -890,13 +1049,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -907,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -916,13 +1075,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -933,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -942,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -959,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -968,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -985,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -994,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1011,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1020,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1037,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1046,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1063,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1072,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1089,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1098,13 +1257,13 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1115,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1124,13 +1283,13 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1141,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1150,13 +1309,13 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1167,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1176,13 +1335,13 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1193,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1202,13 +1361,13 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1219,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1228,13 +1387,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1245,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1254,13 +1413,13 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1271,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1280,13 +1439,13 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1297,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1306,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1323,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1332,13 +1491,13 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1349,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1358,13 +1517,13 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1375,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1384,325 +1543,325 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>170</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1713,22 +1872,22 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1739,22 +1898,22 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1765,22 +1924,22 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1791,22 +1950,22 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1817,22 +1976,22 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1843,22 +2002,22 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1869,22 +2028,22 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F41">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1895,22 +2054,22 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1921,22 +2080,22 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F43">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1947,22 +2106,22 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1973,22 +2132,22 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1999,22 +2158,22 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2025,489 +2184,3951 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47">
         <v>13</v>
       </c>
-      <c r="E47">
-        <v>46</v>
-      </c>
-      <c r="F47">
-        <v>25</v>
-      </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+      <c r="F48">
         <v>14</v>
       </c>
-      <c r="E48">
-        <v>47</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J48" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J55" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E56">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E59">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F60">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>133</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62">
-        <v>61</v>
-      </c>
-      <c r="F62">
-        <v>15</v>
-      </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>134</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>135</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>136</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>137</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>175</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>176</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>177</v>
+      </c>
+      <c r="F69">
         <v>3</v>
       </c>
-      <c r="B63" t="s">
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="J69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>178</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>179</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>180</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>181</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>138</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>139</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>140</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
+      <c r="J76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>141</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>142</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>53</v>
+      </c>
+      <c r="J78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>143</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>144</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>55</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>145</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>146</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>147</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>58</v>
+      </c>
+      <c r="J83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>148</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>149</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>60</v>
+      </c>
+      <c r="J85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>150</v>
+      </c>
+      <c r="F86">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>61</v>
+      </c>
+      <c r="J86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>151</v>
+      </c>
+      <c r="F87">
         <v>14</v>
       </c>
-      <c r="E63">
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
         <v>62</v>
       </c>
-      <c r="F63">
+      <c r="J87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>152</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>153</v>
+      </c>
+      <c r="F89">
         <v>16</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>64</v>
+      </c>
+      <c r="J89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>154</v>
+      </c>
+      <c r="F90">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
+      </c>
+      <c r="J90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>155</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>156</v>
+      </c>
+      <c r="F92">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>157</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>68</v>
+      </c>
+      <c r="J93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>158</v>
+      </c>
+      <c r="F94">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>69</v>
+      </c>
+      <c r="J94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>159</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>160</v>
+      </c>
+      <c r="F96">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>161</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>162</v>
+      </c>
+      <c r="F98">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>73</v>
+      </c>
+      <c r="J98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>182</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>183</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>184</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>185</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>186</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>187</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>63</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>64</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>65</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>66</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>67</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="J109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>68</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>163</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>79</v>
+      </c>
+      <c r="J111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>164</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="J112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>165</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>166</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>167</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>83</v>
+      </c>
+      <c r="J115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>168</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>188</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="J117" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>189</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>86</v>
+      </c>
+      <c r="J118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>190</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>87</v>
+      </c>
+      <c r="J119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>191</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>88</v>
+      </c>
+      <c r="J120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>192</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" t="s">
+        <v>89</v>
+      </c>
+      <c r="J121" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>193</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s">
+        <v>48</v>
+      </c>
+      <c r="J122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>194</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>90</v>
+      </c>
+      <c r="J123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>195</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>91</v>
+      </c>
+      <c r="J124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>196</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>92</v>
+      </c>
+      <c r="J125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>197</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s">
+        <v>93</v>
+      </c>
+      <c r="J126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>198</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="s">
+        <v>94</v>
+      </c>
+      <c r="J127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>199</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>95</v>
+      </c>
+      <c r="J128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>96</v>
+      </c>
+      <c r="J129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>201</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s">
+        <v>97</v>
+      </c>
+      <c r="J130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>202</v>
+      </c>
+      <c r="F131">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>98</v>
+      </c>
+      <c r="J131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>203</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>99</v>
+      </c>
+      <c r="J132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>204</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="s">
+        <v>100</v>
+      </c>
+      <c r="J133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>205</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>101</v>
+      </c>
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>206</v>
+      </c>
+      <c r="F135">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" t="s">
+        <v>102</v>
+      </c>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>207</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>103</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>208</v>
+      </c>
+      <c r="F137">
         <v>15</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>104</v>
+      </c>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>209</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="s">
+        <v>105</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>210</v>
+      </c>
+      <c r="F139">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" t="s">
+        <v>106</v>
+      </c>
+      <c r="J139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>211</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>107</v>
+      </c>
+      <c r="J140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>76</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>79</v>
+      </c>
+      <c r="J141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>77</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="J142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
         <v>78</v>
       </c>
-      <c r="J63" t="s">
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="J143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>79</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>80</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="J145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>81</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s">
+        <v>84</v>
+      </c>
+      <c r="J146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>212</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>213</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" t="s">
+        <v>23</v>
+      </c>
+      <c r="J148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>214</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="J149" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>215</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>216</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+      <c r="J151" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>217</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" t="s">
+        <v>27</v>
+      </c>
+      <c r="J152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>218</v>
+      </c>
+      <c r="F153">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" t="s">
+        <v>28</v>
+      </c>
+      <c r="J153" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>219</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>220</v>
+      </c>
+      <c r="F155">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>221</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>222</v>
+      </c>
+      <c r="F157">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157" t="s">
+        <v>32</v>
+      </c>
+      <c r="J157" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>223</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+      <c r="J158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>224</v>
+      </c>
+      <c r="F159">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" t="s">
+        <v>34</v>
+      </c>
+      <c r="J159" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>225</v>
+      </c>
+      <c r="F160">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>226</v>
+      </c>
+      <c r="F161">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" t="s">
+        <v>36</v>
+      </c>
+      <c r="J161" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162">
+        <v>227</v>
+      </c>
+      <c r="F162">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" t="s">
+        <v>37</v>
+      </c>
+      <c r="J162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163">
+        <v>228</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" t="s">
+        <v>38</v>
+      </c>
+      <c r="J163" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <v>229</v>
+      </c>
+      <c r="F164">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" t="s">
+        <v>39</v>
+      </c>
+      <c r="J164" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165">
+        <v>230</v>
+      </c>
+      <c r="F165">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>231</v>
+      </c>
+      <c r="F166">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" t="s">
+        <v>41</v>
+      </c>
+      <c r="J166" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167">
+        <v>232</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="s">
+        <v>42</v>
+      </c>
+      <c r="J167" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168">
+        <v>82</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" t="s">
+        <v>85</v>
+      </c>
+      <c r="I168" t="s">
+        <v>108</v>
+      </c>
+      <c r="J168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169">
+        <v>83</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" t="s">
+        <v>86</v>
+      </c>
+      <c r="J169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170">
+        <v>84</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170" t="s">
+        <v>20</v>
+      </c>
+      <c r="H170" t="s">
+        <v>87</v>
+      </c>
+      <c r="J170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171">
+        <v>85</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s">
+        <v>88</v>
+      </c>
+      <c r="J171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172">
+        <v>86</v>
+      </c>
+      <c r="F172">
+        <v>5</v>
+      </c>
+      <c r="G172" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" t="s">
+        <v>89</v>
+      </c>
+      <c r="J172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173">
+        <v>87</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="s">
+        <v>48</v>
+      </c>
+      <c r="J173" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174">
+        <v>233</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" t="s">
+        <v>49</v>
+      </c>
+      <c r="J174" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175">
+        <v>234</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s">
+        <v>50</v>
+      </c>
+      <c r="J175" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>235</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="G176" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" t="s">
+        <v>51</v>
+      </c>
+      <c r="J176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177">
+        <v>236</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
+        <v>52</v>
+      </c>
+      <c r="J177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>237</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" t="s">
+        <v>53</v>
+      </c>
+      <c r="J178" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>238</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="G179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" t="s">
+        <v>54</v>
+      </c>
+      <c r="J179" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180">
+        <v>239</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" t="s">
+        <v>55</v>
+      </c>
+      <c r="J180" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>240</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" t="s">
+        <v>56</v>
+      </c>
+      <c r="J181" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182">
+        <v>241</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" t="s">
+        <v>57</v>
+      </c>
+      <c r="J182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183">
+        <v>242</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" t="s">
+        <v>58</v>
+      </c>
+      <c r="J183" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>243</v>
+      </c>
+      <c r="F184">
+        <v>11</v>
+      </c>
+      <c r="G184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" t="s">
+        <v>59</v>
+      </c>
+      <c r="J184" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>244</v>
+      </c>
+      <c r="F185">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" t="s">
+        <v>60</v>
+      </c>
+      <c r="J185" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>245</v>
+      </c>
+      <c r="F186">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" t="s">
+        <v>61</v>
+      </c>
+      <c r="J186" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>246</v>
+      </c>
+      <c r="F187">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187" t="s">
+        <v>62</v>
+      </c>
+      <c r="J187" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188">
+        <v>247</v>
+      </c>
+      <c r="F188">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188" t="s">
+        <v>63</v>
+      </c>
+      <c r="J188" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>248</v>
+      </c>
+      <c r="F189">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" t="s">
+        <v>64</v>
+      </c>
+      <c r="J189" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>249</v>
+      </c>
+      <c r="F190">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" t="s">
+        <v>65</v>
+      </c>
+      <c r="J190" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191">
+        <v>250</v>
+      </c>
+      <c r="F191">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" t="s">
+        <v>66</v>
+      </c>
+      <c r="J191" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192">
+        <v>251</v>
+      </c>
+      <c r="F192">
+        <v>19</v>
+      </c>
+      <c r="G192" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192" t="s">
+        <v>67</v>
+      </c>
+      <c r="J192" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>252</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>20</v>
+      </c>
+      <c r="H193" t="s">
+        <v>68</v>
+      </c>
+      <c r="J193" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194">
+        <v>253</v>
+      </c>
+      <c r="F194">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" t="s">
+        <v>69</v>
+      </c>
+      <c r="J194" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195">
+        <v>254</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>21</v>
+      </c>
+      <c r="H195" t="s">
+        <v>70</v>
+      </c>
+      <c r="J195" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196">
+        <v>255</v>
+      </c>
+      <c r="F196">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s">
+        <v>21</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J196" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197">
+        <v>256</v>
+      </c>
+      <c r="F197">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" t="s">
+        <v>72</v>
+      </c>
+      <c r="J197" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>257</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>20</v>
+      </c>
+      <c r="H198" t="s">
+        <v>73</v>
+      </c>
+      <c r="J198" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
